--- a/data/trans_camb/P16B05-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B05-Edad-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B05-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B05-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -611,22 +611,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,02</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,02</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,64</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,64</t>
         </is>
       </c>
     </row>
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 44,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 49,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 37,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 38,36</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,51%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,51%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,16%</t>
         </is>
       </c>
     </row>
@@ -725,22 +725,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 79,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 99,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 60,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 62,2</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,18</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,69</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,51</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,42</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,99</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 42,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,76; 28,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,16; 29,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 44,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,11; 27,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,7; 24,12</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,53%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,54%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,05%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 73,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,39; 40,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,46; 45,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 79,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,15; 37,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,74; 33,23</t>
         </is>
       </c>
     </row>
@@ -918,27 +918,27 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,72</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,87</t>
         </is>
       </c>
     </row>
@@ -956,27 +956,27 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,75; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,61; 24,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,07; 19,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,06; 18,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,47; 11,73</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,72%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,01%</t>
         </is>
       </c>
     </row>
@@ -1032,27 +1032,27 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,75; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,61; 31,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,18; 24,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,06; 22,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,54; 13,5</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,55</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,26</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,75</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,9; 39,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,49; 38,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 14,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 14,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,33; 16,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,48; 15,59</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,96%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,95; 64,48</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,51; 63,23</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 17,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 17,31</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,33; 19,12</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,48; 18,44</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>12,18</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>12,18</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,05</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,05</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>0,0; 36,86</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 39,19</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 14,49</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 13,09</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,87%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,87%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,22%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>0,0; 58,3</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 64,14</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
+      <c r="F23" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 16,95</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 15,06</t>
         </is>
       </c>
     </row>
@@ -1386,27 +1386,27 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,66</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,96</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,87</t>
         </is>
       </c>
     </row>
@@ -1424,27 +1424,27 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,43; 0,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,61; 15,08</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,42; 10,58</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,06; 10,38</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,07; 6,89</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,66%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,91%</t>
         </is>
       </c>
     </row>
@@ -1500,27 +1500,27 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,43; 0,0</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,64; 17,76</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,51; 12,21</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,07; 11,58</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,14; 7,58</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,77</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,46</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,87</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,96</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,95; 13,32</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,81; 9,78</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,57; 8,87</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,35; 7,94</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,25; 8,82</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,2; 7,13</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,13%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,02; 15,47</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,93; 11,17</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,6; 9,77</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,37; 8,76</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,34; 9,67</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,2; 7,81</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B05-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B05-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1215,7 +1215,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1386,27 +1386,27 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-3,66</t>
+          <t>-7,92</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>5,96</t>
+          <t>7,86</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>4,24</t>
+          <t>5,78</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>-1,17</t>
         </is>
       </c>
     </row>
@@ -1424,27 +1424,27 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-15,43; 0,0</t>
+          <t>-33,01; 0,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1,61; 15,08</t>
+          <t>2,51; 20,76</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 10,58</t>
+          <t>-9,11; 14,34</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,06; 10,38</t>
+          <t>1,82; 16,82</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 6,89</t>
+          <t>-9,42; 8,85</t>
         </is>
       </c>
     </row>
@@ -1462,27 +1462,27 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-3,66%</t>
+          <t>-7,92%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>-1,24%</t>
         </is>
       </c>
     </row>
@@ -1500,34 +1500,34 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-15,43; 0,0</t>
+          <t>-33,01; 0,0</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>1,64; 17,76</t>
+          <t>2,57; 26,2</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 12,21</t>
+          <t>-9,24; 18,05</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>1,07; 11,58</t>
+          <t>1,86; 20,22</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 7,58</t>
+          <t>-9,7; 10,04</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>5,77</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>4,46</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>3,26</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>4,87</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>2,3</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,95; 13,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 9,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1,57; 8,87</t>
+          <t>0,0; 16,34</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,35; 7,94</t>
+          <t>0,0; 18,03</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,25; 8,82</t>
+          <t>0,0; 11,68</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,2; 7,13</t>
+          <t>0,0; 12,07</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>2,36%</t>
         </is>
       </c>
     </row>
@@ -1651,44 +1651,201 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 19,57</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 22,03</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 13,22</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 13,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>5,77</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>2,22</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>4,46</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>3,26</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>4,87</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>2,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>0,95; 13,32</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-3,81; 9,78</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>1,57; 8,87</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>0,35; 7,94</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>2,25; 8,82</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>0,2; 7,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>6,19%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>2,38%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>4,7%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>3,44%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>5,16%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>3,13%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>1,02; 15,47</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-3,93; 11,17</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
         <is>
           <t>1,6; 9,77</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>0,37; 8,76</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>2,34; 9,67</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
         <is>
           <t>0,2; 7,81</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>

--- a/data/trans_camb/P16B05-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B05-Edad-trans_camb.xlsx
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,21</t>
+          <t>0,0; 46,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 49,85</t>
+          <t>0,0; 50,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,83</t>
+          <t>0,0; 43,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,36</t>
+          <t>0,0; 42,36</t>
         </is>
       </c>
     </row>
@@ -725,22 +725,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 79,14</t>
+          <t>0,0; 85,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 99,29</t>
+          <t>0,0; 101,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 60,84</t>
+          <t>0,0; 77,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 62,2</t>
+          <t>0,0; 73,45</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 42,34</t>
+          <t>0,0; 43,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-19,76; 28,66</t>
+          <t>-17,32; 28,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,16; 29,53</t>
+          <t>-13,41; 29,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,28</t>
+          <t>0,0; 45,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 27,35</t>
+          <t>-2,77; 26,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 24,12</t>
+          <t>-3,74; 24,04</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 73,42</t>
+          <t>0,0; 75,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-23,39; 40,54</t>
+          <t>-18,1; 41,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,46; 45,51</t>
+          <t>-13,71; 46,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 79,49</t>
+          <t>0,0; 84,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 37,63</t>
+          <t>-2,9; 36,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 33,23</t>
+          <t>-3,84; 32,48</t>
         </is>
       </c>
     </row>
@@ -956,27 +956,27 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-32,75; 0,0</t>
+          <t>-32,22; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 24,12</t>
+          <t>-4,48; 21,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 19,48</t>
+          <t>-9,77; 18,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 18,53</t>
+          <t>-2,99; 21,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,47; 11,73</t>
+          <t>-11,63; 11,94</t>
         </is>
       </c>
     </row>
@@ -1032,27 +1032,27 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-32,75; 0,0</t>
+          <t>-32,22; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 31,77</t>
+          <t>-4,48; 28,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 24,69</t>
+          <t>-11,12; 22,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 22,64</t>
+          <t>-2,99; 27,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 13,5</t>
+          <t>-11,67; 13,85</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 39,6</t>
+          <t>-7,92; 32,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 38,9</t>
+          <t>-8,57; 32,49</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,86</t>
+          <t>0,0; 14,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,75</t>
+          <t>0,0; 14,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 16,01</t>
+          <t>-1,32; 15,62</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 15,59</t>
+          <t>-1,5; 16,18</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 64,48</t>
+          <t>-7,94; 51,91</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 63,23</t>
+          <t>-8,57; 49,91</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,46</t>
+          <t>0,0; 16,7</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,31</t>
+          <t>0,0; 16,73</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 19,12</t>
+          <t>-1,31; 18,61</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 18,44</t>
+          <t>-1,5; 19,42</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,86</t>
+          <t>0,0; 39,24</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,19</t>
+          <t>0,0; 33,95</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1283,12 +1283,12 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,49</t>
+          <t>0,0; 13,8</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,09</t>
+          <t>0,0; 14,47</t>
         </is>
       </c>
     </row>
@@ -1339,12 +1339,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,3</t>
+          <t>0,0; 64,55</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 64,14</t>
+          <t>0,0; 51,4</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,95</t>
+          <t>0,0; 16,0</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,06</t>
+          <t>0,0; 16,92</t>
         </is>
       </c>
     </row>
@@ -1424,27 +1424,27 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-33,01; 0,0</t>
+          <t>-38,29; 0,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>2,51; 20,76</t>
+          <t>2,5; 18,79</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 14,34</t>
+          <t>-9,76; 11,57</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,82; 16,82</t>
+          <t>1,83; 15,37</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 8,85</t>
+          <t>-10,3; 8,02</t>
         </is>
       </c>
     </row>
@@ -1500,27 +1500,27 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-33,01; 0,0</t>
+          <t>-38,29; 0,0</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>2,57; 26,2</t>
+          <t>2,57; 23,14</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 18,05</t>
+          <t>-10,21; 13,64</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>1,86; 20,22</t>
+          <t>1,86; 18,16</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 10,04</t>
+          <t>-10,79; 8,98</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,34</t>
+          <t>0,0; 17,39</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,03</t>
+          <t>0,0; 16,26</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,68</t>
+          <t>0,0; 12,57</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,07</t>
+          <t>0,0; 12,06</t>
         </is>
       </c>
     </row>
@@ -1661,22 +1661,22 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,57</t>
+          <t>0,0; 21,05</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,03</t>
+          <t>0,0; 19,47</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,22</t>
+          <t>0,0; 14,38</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,73</t>
+          <t>0,0; 13,71</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0,95; 13,32</t>
+          <t>0,97; 13,28</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 9,78</t>
+          <t>-3,54; 10,43</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>1,57; 8,87</t>
+          <t>1,3; 8,65</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>0,35; 7,94</t>
+          <t>0,08; 7,79</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>2,25; 8,82</t>
+          <t>2,36; 8,39</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>0,2; 7,13</t>
+          <t>-0,33; 6,53</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>1,02; 15,47</t>
+          <t>0,8; 15,26</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 11,17</t>
+          <t>-3,68; 11,97</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>1,6; 9,77</t>
+          <t>1,36; 9,53</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>0,37; 8,76</t>
+          <t>0,08; 8,73</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>2,34; 9,67</t>
+          <t>2,44; 9,23</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>0,2; 7,81</t>
+          <t>-0,33; 7,15</t>
         </is>
       </c>
     </row>
